--- a/data/gpt_examples/Forward_bigfive.xlsx
+++ b/data/gpt_examples/Forward_bigfive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\twelve-gpt-educational\data\gpt_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\wordalisations\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6AD97-8B5E-4182-841B-2EBF064DEDD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501610F-9FAA-423E-AD30-F0E0648DEF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
+    <workbookView xWindow="35145" yWindow="2430" windowWidth="26745" windowHeight="14505" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -36,34 +48,35 @@
     <t>The candidate is very outgoing and energetic. The candidate tends to be more social. In particular they said that they start conversations. The candidate is quite sensitive and nervous. The candidate tends to feel more negative emotions and anxiety. The candidate is quite friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is very efficient and organized. The candidate tends to be more careful or diligent. In particular they said that they pay attention to details. The candidate is relatively consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
   </si>
   <si>
-    <t>The candidate is highly outgoing and energetic, often initiating conversations and tending to be more social overall. They are also quite sensitive and nervous, experiencing higher levels of negative emotions and anxiety. Additionally, the candidate is friendly and compassionate, showing a strong tendency to be cooperative, polite, kind, and approachable.
-The candidate is exceptionally efficient and organized, consistently demonstrating careful attention to detail and a diligent approach to tasks. In particular, they mentioned how they make an effort to pay attention to the finer points. On the other hand, the candidate is relatively consistent and cautious, showing a tendency to be less open to new ideas and experiences.</t>
-  </si>
-  <si>
     <t>The candidate is extremely solitary and reserved. The candidate tends to be less social. In particular they said that they dont talk a lot. The candidate is very resilient and confident. The candidate tends to feel less negative emotions and anxiety. In particular they said that they get stressed out easily. The candidate is relatively friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is very extravagant and careless. The candidate tends to be less careful or diligent. In particular they said that they make a mess of things. The candidate is relatively consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
   </si>
   <si>
-    <t>The candidate is notably solitary and reserved, showing a tendency to be less social. They specifically mentioned that they don’t engage in many conversations. On the other hand, the candidate is highly resilient and confident, tending to experience fewer negative emotions and less anxiety. However, they did mention that they get stressed out easily in certain situations.
-The candidate is relatively friendly and compassionate, often exhibiting cooperative, polite, and kind behavior. Despite this, the candidate demonstrates a tendency toward extravagance and carelessness, as they mentioned their tendency to make a mess of things and be less diligent.
-While the candidate is generally consistent and cautious, they also tend to be less open to new ideas and experiences, preferring stability over novelty.</t>
-  </si>
-  <si>
     <t>The candidate is relatively solitary and reserved. The candidate tends to be less social. The candidate is very sensitive and nervous. The candidate tends to feel more negative emotions and anxiety. In particular they said that they are relaxed most of the time. The candidate is relatively critical and rational. The candidate tends to be less cooperative polite kind and friendly. The candidate is quite extravagant and careless. The candidate tends to be less careful or diligent. The candidate is very inventive and curious. The candidate tends to be more open to new ideas and experiences.In particular they said that they have a rich vocabulary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The candidate is generally solitary and reserved, tending to be less social overall. They are also quite sensitive and nervous, often feeling more negative emotions and anxiety. However, they mentioned that they are relaxed most of the time despite these tendencies.
-The candidate is somewhat critical and rational, showing a tendency to be less cooperative, polite, kind, and friendly in social interactions. They are also quite extravagant and careless, often being less careful or diligent in their approach.
-On the positive side, the candidate is highly inventive and curious, demonstrating a strong openness to new ideas and experiences. They specifically mentioned having a rich vocabulary, indicating a deep interest in learning and exploring different subjects.
-</t>
   </si>
   <si>
     <t xml:space="preserve">The candidate is quite solitary and reserved. The candidate tends to be less social. The candidate is quite resilient and confident. The candidate tends to feel less negative emotions and anxiety. The candidate is relatively friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is very efficient and organized. The candidate tends to be more careful or diligent. In particular they said that they are always prepared. The candidate is quite consistent and cautious. The candidate tends to be less open to new ideas and experiences.
 </t>
   </si>
   <si>
-    <t>The candidate is notably solitary and reserved, with a tendency to be less social in group settings. However, they are also quite resilient and confident, generally experiencing fewer negative emotions and less anxiety.
-While the candidate is relatively friendly and compassionate, they tend to exhibit more cooperative, polite, and kind behaviors in social interactions. They are highly efficient and organized, consistently demonstrating careful attention to detail and diligence. In particular, they mentioned that they are always well-prepared for any situation.
-The candidate is also quite consistent and cautious, showing a preference for stability and reliability. However, they tend to be less open to new ideas and experiences, preferring familiar routines and approaches.</t>
+    <t>The candidate describes themself as a person who likes to think on their own about problems, coming up with inventive solutions. The person sees themselves as having a way with words, sometimes expressing themselves with extravagantly and in some cases slightly carelessly. They do however describe themselves as critical thinkers, who keep their feedback to others less polite. In summary, the candidate can be shy, but is a thinker who can join in discussions with well-thought out input.</t>
+  </si>
+  <si>
+    <t>The candidate is reserved and not very social, demonstrating resilience and assurance in their abilities, though they can be stressed by new experiences and tend towards carelessness.
+The candidate describes themselves as very resilient and confident, and also as friendly and compassionate, tending to be more cooperative, polite, and kind.
+Their stated weaknesses include being extremely solitary and reserved, tending to be disorganize, and admitting they get stressed out easily.
+In summary, the person is introvert, but is resilient, confident, and capable of being cooperative and friendly, when necessary, though they may lack diligence and be wary of new ideas.</t>
+  </si>
+  <si>
+    <t>While highly inventive and curious, the candidate is solitary and sensitive.
+They are highly inventive and curious, which enables them to willingly embrace new ideas and communicate them effectively.
+Due to their solitary nature, cooperation may be challenging. They also admit to be imprudent.
+In summary, even though the person isn't social, the interactions will be brief, to the point, and well-informed.</t>
+  </si>
+  <si>
+    <t>The candidate is efficient and organized, showing resilience and confidence, and is cooperative with others, but is solitary and cautious of new ideas.
+The candidate presents as highly efficient and organized, noting they are always prepared. Their assured nature suggests that collaborative efforts will be polite and welcoming.
+They describe themselves as unsociable and cautious, demonstrating little interest in new ideas or change.
+In summary, the person will be efficient and organized in their work, the cooperation will be polite.</t>
   </si>
 </sst>
 </file>
@@ -105,13 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,19 +444,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B2BAE4-91EA-4C9C-84FA-0836237E6794}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.109375" customWidth="1"/>
-    <col min="2" max="2" width="60.44140625" customWidth="1"/>
+    <col min="1" max="1" width="77.1796875" customWidth="1"/>
+    <col min="2" max="2" width="80.26953125" customWidth="1"/>
+    <col min="3" max="3" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,33 +465,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="165.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>

--- a/data/gpt_examples/Forward_bigfive.xlsx
+++ b/data/gpt_examples/Forward_bigfive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\wordalisations\data\gpt_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501610F-9FAA-423E-AD30-F0E0648DEF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF9E775-9B83-4F3E-980C-59B832B77DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35145" yWindow="2430" windowWidth="26745" windowHeight="14505" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{16C02B7C-A662-4920-9F10-20A7161C31E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>user</t>
   </si>
@@ -58,25 +58,22 @@
 </t>
   </si>
   <si>
-    <t>The candidate describes themself as a person who likes to think on their own about problems, coming up with inventive solutions. The person sees themselves as having a way with words, sometimes expressing themselves with extravagantly and in some cases slightly carelessly. They do however describe themselves as critical thinkers, who keep their feedback to others less polite. In summary, the candidate can be shy, but is a thinker who can join in discussions with well-thought out input.</t>
-  </si>
-  <si>
-    <t>The candidate is reserved and not very social, demonstrating resilience and assurance in their abilities, though they can be stressed by new experiences and tend towards carelessness.
-The candidate describes themselves as very resilient and confident, and also as friendly and compassionate, tending to be more cooperative, polite, and kind.
-Their stated weaknesses include being extremely solitary and reserved, tending to be disorganize, and admitting they get stressed out easily.
-In summary, the person is introvert, but is resilient, confident, and capable of being cooperative and friendly, when necessary, though they may lack diligence and be wary of new ideas.</t>
-  </si>
-  <si>
-    <t>While highly inventive and curious, the candidate is solitary and sensitive.
-They are highly inventive and curious, which enables them to willingly embrace new ideas and communicate them effectively.
-Due to their solitary nature, cooperation may be challenging. They also admit to be imprudent.
-In summary, even though the person isn't social, the interactions will be brief, to the point, and well-informed.</t>
-  </si>
-  <si>
-    <t>The candidate is efficient and organized, showing resilience and confidence, and is cooperative with others, but is solitary and cautious of new ideas.
-The candidate presents as highly efficient and organized, noting they are always prepared. Their assured nature suggests that collaborative efforts will be polite and welcoming.
-They describe themselves as unsociable and cautious, demonstrating little interest in new ideas or change.
-In summary, the person will be efficient and organized in their work, the cooperation will be polite.</t>
+    <t>The candidate is very outgoing and energetic. The candidate tends to be more social. In particular they said that they are the life of the party. The candidate is relatively sensitive and nervous. The candidate tends to feel more negative emotions and anxiety. The candidate is quite friendly and compassionate. The candidate tends to be more cooperative polite kind and friendly. The candidate is quite efficient and organized. The candidate tends to be more careful or diligent. The candidate is quite consistent and cautious. The candidate tends to be less open to new ideas and experiences.</t>
+  </si>
+  <si>
+    <t>The candidate appears to be an outgoing and energetic individual who enjoys social interaction and readily engages others in conversation. They demonstrate strong organizational skills, attention to detail, and a cooperative nature, though their sensitivity may at times make them prone to stress or self-doubt. They are likely to thrive in structured, collaborative environments that value precision, clear expectations, and positive interpersonal dynamics.</t>
+  </si>
+  <si>
+    <t>The candidate appears to be a reserved and independent individual who is comfortable working alone and prefers minimal social interaction. They show confidence and emotional stability, though a tendency toward carelessness or disorganization may occasionally impact their work quality. They are likely to perform best in roles that allow autonomy, clear structure, and limited social demands, where their self-assurance and steady temperament can contribute effectively.</t>
+  </si>
+  <si>
+    <t>The candidate appears to be an introspective and independent individual who values critical thinking and creativity. They demonstrate strong curiosity and openness to new ideas, though their sensitivity and tendency toward carelessness may occasionally pose challenges in structured environments. They are likely to thrive in roles that reward innovation and analytical depth, where independent work and intellectual exploration are encouraged.</t>
+  </si>
+  <si>
+    <t>The candidate appears to be a composed and self-reliant individual who approaches their work with discipline and steadiness. They demonstrate strong organizational skills, reliability, and emotional resilience, though their preference for routine may limit adaptability to novel or rapidly changing situations. They are likely to thrive in structured and predictable professional environments that value consistency, precision, and accountability.</t>
+  </si>
+  <si>
+    <t>The candidate appears to be an outgoing and energetic individual who enjoys social interaction and brings enthusiasm to group settings. They demonstrate strong organizational skills, reliability, and kindness toward others, though their sensitivity may occasionally lead to stress in demanding situations. They are likely to thrive in structured, team-oriented environments where clear expectations and collaborative work are valued.</t>
   </si>
 </sst>
 </file>
@@ -92,10 +89,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,14 +118,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,59 +442,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B2BAE4-91EA-4C9C-84FA-0836237E6794}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.1796875" customWidth="1"/>
-    <col min="2" max="2" width="80.26953125" customWidth="1"/>
-    <col min="3" max="3" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="62.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="165.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="155.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="165.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
